--- a/project/results/RAGAS_pipeline_evaluation/full_dataframe.xlsx
+++ b/project/results/RAGAS_pipeline_evaluation/full_dataframe.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>context_precision</t>
+          <t>context_relevancy</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7805445241408155</v>
+        <v>0.7804850326585333</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9391726164736258</v>
+        <v>0.2169251760507209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9131367931168796</v>
+        <v>0.9153681296784565</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -612,13 +612,13 @@
         <v>0.873494448811459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999999999</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9420705853414102</v>
+        <v>0.9374969639352981</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -657,13 +657,13 @@
         <v>0.7931830497636023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9758101162398436</v>
+        <v>0.9836441685505647</v>
       </c>
       <c r="J5" t="n">
         <v>0.75</v>
@@ -703,13 +703,13 @@
         <v>0.4291084247659642</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.916819688730878</v>
+        <v>0.8995044046346012</v>
       </c>
       <c r="J6" t="n">
         <v>0.5</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7207635128552037</v>
+        <v>0.4707635128552037</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8935543920086141</v>
+        <v>0.9008433559245952</v>
       </c>
       <c r="J8" t="n">
         <v>0.8333333333333334</v>
@@ -834,13 +834,13 @@
         <v>0.2007592856469111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999999999</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9737832872209307</v>
+        <v>0.9590569601717628</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
